--- a/fuentes/contenidos/grado06/guion06/Escaleta_CN_06_06_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion06/Escaleta_CN_06_06_CO.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_06_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$U$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$42</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="252">
   <si>
     <t>Asignatura</t>
   </si>
@@ -387,28 +392,277 @@
     <t>m101A</t>
   </si>
   <si>
-    <t>La respiración</t>
-  </si>
-  <si>
     <t>CN_06_06_CO</t>
   </si>
   <si>
-    <t xml:space="preserve">La respiración en los seres vivos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipos de respiración </t>
-  </si>
-  <si>
-    <t>Respiración aerobia</t>
-  </si>
-  <si>
-    <t>Respiración anaerobia</t>
-  </si>
-  <si>
-    <t>La respiración aerobia y anaerobia</t>
-  </si>
-  <si>
-    <t>Interactivo que permite comprender la diferencia entre la respiración aerobia y anaerobia</t>
+    <t>La respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué es la respiración? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los tipos de respiración </t>
+  </si>
+  <si>
+    <t>La respiración anaerobia</t>
+  </si>
+  <si>
+    <t>La respiración aerobia</t>
+  </si>
+  <si>
+    <t>La respiración anaerobia y aerobia</t>
+  </si>
+  <si>
+    <t>Interactivo que explica los tipos de respiración: aerobia y anaerobia</t>
+  </si>
+  <si>
+    <t>Reconoce los tipos de respiración de los seres vivos</t>
+  </si>
+  <si>
+    <t>La respiración celular</t>
+  </si>
+  <si>
+    <t>Actividad de crucigrama que permite reconocer las características de los tipos de respiración de los seres vivos</t>
+  </si>
+  <si>
+    <t>¿Cómo es la respiración en las células?</t>
+  </si>
+  <si>
+    <t>Actividad de completar un texto para definir la respiración celular</t>
+  </si>
+  <si>
+    <t>Consolidación</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t>Actividad sobre la respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t>m101a</t>
+  </si>
+  <si>
+    <t>La respiración en procariotas</t>
+  </si>
+  <si>
+    <t>¿Cómo respiran los microorganismos?</t>
+  </si>
+  <si>
+    <t>Interactivo que permite identificar los tipos de respiración en los microorganismos</t>
+  </si>
+  <si>
+    <t>Los seres vivos y la respiración</t>
+  </si>
+  <si>
+    <t>Actividad de preguntas que permite validar los conocimientos aprendidos acerca de la respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t>La respiración celular y la fotosíntesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que permite comparar los procesos de respiración celular y fotosíntesis </t>
+  </si>
+  <si>
+    <t>La respiración en las plantas</t>
+  </si>
+  <si>
+    <t>¿Cómo respiran las plantas?</t>
+  </si>
+  <si>
+    <t>Actividad de completar un texto para reforzar los conocimientos sobre la respiración en las plantas</t>
+  </si>
+  <si>
+    <t>Las estructuras de las plantas en la respiración</t>
+  </si>
+  <si>
+    <t>Actividad que permite relacionar las estructuras de la plantas que participan en la respiración</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La respiración en las plantas</t>
+  </si>
+  <si>
+    <t>Actividad sobre la respiración en las plantas</t>
+  </si>
+  <si>
+    <t>La respiración en animales</t>
+  </si>
+  <si>
+    <t>Respiración directa</t>
+  </si>
+  <si>
+    <t>Respiración traqueal</t>
+  </si>
+  <si>
+    <t>Respiración cutánea</t>
+  </si>
+  <si>
+    <t>Respiración branquial</t>
+  </si>
+  <si>
+    <t>Respiración pulmonar </t>
+  </si>
+  <si>
+    <t>Aprende cómo respiran los animales</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reconocer los diferentes mecanismos de respiración en animales</t>
+  </si>
+  <si>
+    <t>Tipos de pulmones en animales</t>
+  </si>
+  <si>
+    <t>Interactivo para identificar los diferentes tipos de pulmones en los animales y su funcionamiento</t>
+  </si>
+  <si>
+    <t>Clasifica los animales según el tipo de respiración</t>
+  </si>
+  <si>
+    <t>Actividad que permite clasificar animales según el tipo de respiración que posean</t>
+  </si>
+  <si>
+    <t>Las estructuras del sistema respiratorio en animales</t>
+  </si>
+  <si>
+    <t>Actividad de juego del ahorcado que permite recocer las estructuras en el sistema respiratorio de los animales</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La respiración en animales</t>
+  </si>
+  <si>
+    <t>Actividad sobre la respiración en animales</t>
+  </si>
+  <si>
+    <t>La respiración en el ser humano</t>
+  </si>
+  <si>
+    <t>El sistema respiratorio</t>
+  </si>
+  <si>
+    <t>Las vías respiratorias</t>
+  </si>
+  <si>
+    <t>Los pulmones</t>
+  </si>
+  <si>
+    <t>El aparato respiratorio</t>
+  </si>
+  <si>
+    <t>Interactivo del aparato respiratorio humano y los órganos que lo componen</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>El aparato respiratorio en el ser humano</t>
+  </si>
+  <si>
+    <t>MN_3C_15</t>
+  </si>
+  <si>
+    <t>Conoce la morfología y función del aparato respiratorio</t>
+  </si>
+  <si>
+    <t>Actividad que sirve para repasar los órganos del aparato respiratorio y sus funciones</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Conoce la morfología y la función del aparato respiratorio</t>
+  </si>
+  <si>
+    <t>BG_09_13</t>
+  </si>
+  <si>
+    <t>La ventilación pulmonar</t>
+  </si>
+  <si>
+    <t>El intercambio de gases</t>
+  </si>
+  <si>
+    <t>Ventilación pulmonar e intercambio de gases</t>
+  </si>
+  <si>
+    <t>Interactivo con animación incluida que permite conocer los mecanismos de intercambio gaseoso del organismo con el exterior</t>
+  </si>
+  <si>
+    <t>Cuidados y enfermedades del sistema respiratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo cuidar el sistema respiratorio? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las enfermedades asociadas al sistema respiratorio </t>
+  </si>
+  <si>
+    <t>Reconoce las enfermedades del sistema respiratorio</t>
+  </si>
+  <si>
+    <t>Actividad de crucigrama que permite reconocer las enfermedades asociadas al sistema respiratorio</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La respiración en el ser humano</t>
+  </si>
+  <si>
+    <t>Actividad sobre la respiración en el ser humano</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Fin de unidad</t>
+  </si>
+  <si>
+    <t>Mapa Conceptual</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Banco de actividades</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema La respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t>Banco de actividades del tema La respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t>m101ap</t>
+  </si>
+  <si>
+    <t>Competencias: comprensión del intercambio de gases en las plantas</t>
+  </si>
+  <si>
+    <t>Actividad que permite comprender el intercambio de gases a través de las hojas en las plantas</t>
+  </si>
+  <si>
+    <t>Competencias: comparación de las formas de respiración de los seres vivos</t>
+  </si>
+  <si>
+    <t>Actividad que propone el desarrollo de destrezas para comprender los tipos de respiración en los seres vivos</t>
+  </si>
+  <si>
+    <t>Competencias: análisis del proceso completo de la respiración en el ser humano</t>
+  </si>
+  <si>
+    <t>Actividad que propone el desarrollo de las destrezas para realizar un análisis de todo el proceso de respiración</t>
+  </si>
+  <si>
+    <t>Competencias: construcción de un modelo de los pulmones</t>
+  </si>
+  <si>
+    <t>Competencias: construcción de un modelo de pulmones</t>
+  </si>
+  <si>
+    <t>Actividad que propone construir un modelo de los pulmones y el diafragma, para comprender cómo se realiza la respiración</t>
+  </si>
+  <si>
+    <t>Competencias: análisis del proceso completo de respiración</t>
   </si>
   <si>
     <t>RF</t>
@@ -423,371 +677,116 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>La respiración en los seres vivos</t>
-  </si>
-  <si>
-    <t>Ejercicio que permite relacionar algunos conceptos de la respiración en los seres vivos con su respectiva definición</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
     <t>Recursos M</t>
   </si>
   <si>
+    <t>Recurso M11A-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso F4-01</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso F10-01</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
     <t>Recurso M1B-01</t>
   </si>
   <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Respiración celular</t>
-  </si>
-  <si>
-    <t>Recurso F10-01</t>
-  </si>
-  <si>
-    <t>3º ESO</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>El aparato respiratorio</t>
-  </si>
-  <si>
-    <t>Comprende la respiración celular</t>
-  </si>
-  <si>
-    <t>BG_09_13</t>
-  </si>
-  <si>
-    <t>Actividad que sirve para entender la respiración celular que se realiza en las mitocondrias</t>
-  </si>
-  <si>
-    <t>Consolidación</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La respiración en los seres vivos</t>
-  </si>
-  <si>
-    <t>Actividad de síntesis sobre el concepto de respiración</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Respiración en procariotas</t>
-  </si>
-  <si>
-    <t>Respiración en protistos</t>
-  </si>
-  <si>
-    <t>Respiración en hongos</t>
-  </si>
-  <si>
-    <t>¿Cómo respiran los microorganismos?</t>
-  </si>
-  <si>
-    <t>La respiración en los microorganismos</t>
-  </si>
-  <si>
-    <t>Actividad que permite repasar conceptos importantes de la respiración en microorganismos</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>Recurso F8-01</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M14A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso M11A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-01</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>La respiración en protistas y hongos</t>
+  </si>
+  <si>
+    <t>La respiración en microorganismos</t>
+  </si>
+  <si>
+    <t>Identifica la forma en que respiran los microorganismos</t>
+  </si>
+  <si>
+    <t>Actividad del juego del ahorcado para reforzar los conocimientos sobre la respiración en microorganismos</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La respiración en microorganismos</t>
   </si>
   <si>
-    <t>Actividad para reforzar el proceso de respiración en los microorganismos</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Estructuras para la respiración en las plantas</t>
-  </si>
-  <si>
-    <t>Respiración y fotosíntesis</t>
-  </si>
-  <si>
-    <t>Respiración en las plantas</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La respiración en las plantas</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Tipos de respiración</t>
-  </si>
-  <si>
-    <t>Respiración en invertebrados</t>
-  </si>
-  <si>
-    <t>Tipos de respiración en animales</t>
-  </si>
-  <si>
-    <t>Interactivo para explicar los tipos de respiración que se presentan en animales</t>
-  </si>
-  <si>
-    <t>Recurso F4-01</t>
-  </si>
-  <si>
-    <t>La respiración en animales</t>
-  </si>
-  <si>
-    <t>Actividad de crucigrama sobre los tipos de respiración en animales</t>
-  </si>
-  <si>
-    <t>Recurso M11A-01</t>
-  </si>
-  <si>
-    <t>La respiración en invertebrados</t>
-  </si>
-  <si>
-    <t>Actividad que permite relacionar los animales invertebrados con el tipo de respiración que realizan</t>
-  </si>
-  <si>
-    <t>Recurso M1B-02</t>
-  </si>
-  <si>
-    <t>Respiración en vertebrados</t>
-  </si>
-  <si>
-    <t>¿Cómo respiran los animales?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que presenta el tipo de respiración que se presenta en cada uno de los grupos de animales </t>
-  </si>
-  <si>
-    <t>Actividad que permite relacionar los grupos de animales con el tipo de respiración correspondiente</t>
-  </si>
-  <si>
-    <t>Recurso M1C-01</t>
-  </si>
-  <si>
-    <t>Recurso F4-02</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La respiración en animales</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>Sistema respiratorio</t>
-  </si>
-  <si>
-    <t>Las vías respiratorias</t>
-  </si>
-  <si>
-    <t>Los pulmones</t>
-  </si>
-  <si>
-    <t>Movimientos de la respiración e intercambio de gases</t>
-  </si>
-  <si>
-    <t>Inspiración y espiración</t>
-  </si>
-  <si>
-    <t>Animación que explica la inspiración y espiración y el intercambio de gases en los pulmones</t>
-  </si>
-  <si>
-    <t>Cuidados y enfermedades del sistema respiratorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuidados </t>
-  </si>
-  <si>
-    <t>Enfermedades</t>
-  </si>
-  <si>
-    <t>La respiración en microorganismos</t>
-  </si>
-  <si>
-    <t>La respiración en plantas</t>
-  </si>
-  <si>
-    <t>La respiración en el ser humano</t>
-  </si>
-  <si>
-    <t>El intercambio gaseoso en los animales</t>
-  </si>
-  <si>
-    <t>Actividad para validar los conocimientos aprendidos sobre la respiración en animales</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Enfermedades asociadas a la respiración en el ser humano</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar la comprensión del proceso de respiración humana</t>
-  </si>
-  <si>
-    <t>La morfología del aparato respiratorio en el ser humano</t>
-  </si>
-  <si>
-    <t>Recurso M4A-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para repasar las estructuras que conforman el aparato respiratorio humano </t>
-  </si>
-  <si>
-    <t>Actividad del juego del ahorcado que permite identificar las enfermedades asociadas a la respiración en el ser humano</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar los conocimientos acerca de la respiración en el ser humano</t>
-  </si>
-  <si>
-    <t>Recurso M2A-02</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>Recurso M9C-01</t>
-  </si>
-  <si>
-    <t>El intercambio de gases en la respiración</t>
-  </si>
-  <si>
-    <t>Actividad que permite evaluar los conocimientos aprendidos sobre el intercambio de gases en la respiración</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La respiración en el ser humano</t>
-  </si>
-  <si>
-    <t>Recursos adicionales 01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-06</t>
-  </si>
-  <si>
-    <t>RF_01_02_CO</t>
-  </si>
-  <si>
-    <t>Competencias</t>
-  </si>
-  <si>
-    <t>Recursos M aleatorios y diaporama F1</t>
-  </si>
-  <si>
-    <t>Diaporama F1-01</t>
-  </si>
-  <si>
-    <t>RM_01_02_CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secuencia de imágenes que presenta el tipo de respiración en los microorganismos </t>
-  </si>
-  <si>
-    <t>Recurso F12-01</t>
-  </si>
-  <si>
-    <t>Fin de unidad</t>
-  </si>
-  <si>
-    <t>Mapa Conceptual</t>
-  </si>
-  <si>
-    <t>Evaluación</t>
-  </si>
-  <si>
-    <t>Banco de actividades</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
-  </si>
-  <si>
-    <t>Competencias: estudio de la respiración en el reino animal</t>
-  </si>
-  <si>
-    <t>Actividad que propone el desarrollo de destrezas para comprender como se realiza la respiración en los animales</t>
-  </si>
-  <si>
-    <t>2º ESO</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>El reino animal: funciones</t>
-  </si>
-  <si>
-    <t>CN_08_05</t>
-  </si>
-  <si>
-    <t>Proyecto: absorción de gases en las plantas</t>
-  </si>
-  <si>
-    <t>Competencias: comparación de la respiración humana y la animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que propone el desarrollo de las destrezas para realizar la comparación entre los diferentes sistemas y órganos que realizan el intercambio de gases en el mundo animal  </t>
-  </si>
-  <si>
-    <t>Competencias: comparación de la respiración humana y animal</t>
-  </si>
-  <si>
-    <t>Actividad que guía el trabajo colaborativo sobre el desarrollo de destrezas en la comprensión del proceso de absorción de gases en las plantas</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar el procedimiento de comprensión de la respiración celular</t>
-  </si>
-  <si>
-    <t>Competencias: comprensión de la respiración celular</t>
-  </si>
-  <si>
-    <t>Mapa conceptual del tema La respiración</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos sobre el tema La respiración</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema La respiración</t>
-  </si>
-  <si>
-    <t>m4A</t>
-  </si>
-  <si>
-    <t>Recurso M4A-03</t>
-  </si>
-  <si>
-    <t>Texto que permite la comprensión del proceso de respiración celular en los organismos</t>
-  </si>
-  <si>
-    <t>Interactivo que permite comparar los procesos de respiración y fotosíntesis en las plantas</t>
-  </si>
-  <si>
-    <t>Actividad interactiva para reforzar los conocimientos sobre el proceso de respiración en la plantas</t>
-  </si>
-  <si>
-    <t>Actividad para diferenciar y comprender los procesos de respiración y fotosíntesis</t>
-  </si>
-  <si>
-    <t>Actividad que permite reforzar los conocimientos sobre el proceso de respiración en los animales</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t>m101ap</t>
+    <t>Actividad acerca de la respiración en microorganismos</t>
+  </si>
+  <si>
+    <t>Las estructuras para la respiración en las plantas</t>
+  </si>
+  <si>
+    <t>Los estomas</t>
+  </si>
+  <si>
+    <t>Las lenticelas</t>
+  </si>
+  <si>
+    <t>Los neumatóforos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +821,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -943,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -976,44 +983,43 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,6 +1059,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1150,7 +1174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1359,136 +1383,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U283"/>
+  <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11" style="19" customWidth="1"/>
+    <col min="10" max="10" width="51.140625" style="16" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="19" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" customWidth="1"/>
-    <col min="20" max="20" width="34" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="25"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>124</v>
@@ -1499,16 +1523,16 @@
       <c r="F3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="7"/>
       <c r="L3" s="6"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="11"/>
       <c r="S3" s="10"/>
@@ -1520,10 +1544,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>124</v>
@@ -1534,16 +1558,16 @@
       <c r="F4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="20" t="s">
         <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1557,34 +1581,34 @@
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="10">
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>124</v>
@@ -1595,17 +1619,17 @@
       <c r="F5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="18">
         <v>2</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>135</v>
+      <c r="J5" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1615,26 +1639,26 @@
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="O5" s="9"/>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="10">
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1642,117 +1666,117 @@
         <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="18">
         <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>247</v>
+        <v>20</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="10">
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>124</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="18">
         <v>4</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>147</v>
+      <c r="J7" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O7" s="9"/>
-      <c r="P7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>142</v>
+      <c r="P7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1760,29 +1784,29 @@
         <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="18">
         <v>5</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>150</v>
+      <c r="J8" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1792,151 +1816,177 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="10">
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>196</v>
+      <c r="D9" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="7"/>
       <c r="L9" s="6"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
       <c r="S9" s="10"/>
       <c r="T9" s="12"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>153</v>
+      <c r="D10" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
+      <c r="G10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="18">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="10"/>
+      <c r="P10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>6</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>154</v>
+      <c r="D11" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6</v>
+      <c r="G11" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="18">
+        <v>7</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>222</v>
+        <v>20</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N11" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="10">
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1944,29 +1994,29 @@
         <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>196</v>
+      <c r="D12" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="9">
-        <v>7</v>
+      <c r="G12" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="18">
+        <v>8</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>157</v>
+      <c r="J12" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -1976,26 +2026,26 @@
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="21" t="s">
-        <v>20</v>
+      <c r="P12" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="Q12" s="10">
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2003,176 +2053,130 @@
         <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="9">
-        <v>8</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>6</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="9">
-        <v>9</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="F14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>6</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="9">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="18">
+        <v>9</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>249</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q15" s="10">
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2180,29 +2184,31 @@
         <v>17</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="9">
-        <v>11</v>
+        <v>146</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="18">
+        <v>10</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>250</v>
+      <c r="J16" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2212,26 +2218,26 @@
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="10">
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2239,58 +2245,60 @@
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="9">
-        <v>12</v>
+        <v>146</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="18">
+        <v>11</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>171</v>
+        <v>20</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="10">
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2298,29 +2306,29 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="9">
-        <v>13</v>
+      <c r="G18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="18">
+        <v>12</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>174</v>
+      <c r="J18" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2330,388 +2338,306 @@
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="10">
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="9">
-        <v>14</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>6</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="P19" s="18"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="9">
-        <v>15</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>6</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="P20" s="18"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="9">
-        <v>16</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>6</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="9">
-        <v>17</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>6</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" s="9">
-        <v>18</v>
+      <c r="G23" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="18">
+        <v>13</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>251</v>
+        <v>19</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="10">
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="18">
+        <v>14</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="N24" s="8"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="10"/>
+      <c r="P24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>6</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="9">
-        <v>19</v>
+        <v>158</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="18">
+        <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="18" t="s">
-        <v>206</v>
+      <c r="J25" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2721,85 +2647,85 @@
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O25" s="9"/>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="10">
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D26" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>190</v>
+        <v>153</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="G26" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="18">
+        <v>16</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>192</v>
+      <c r="J26" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="10">
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2807,156 +2733,152 @@
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="18">
+        <v>17</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="N27" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="10"/>
-    </row>
-    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="P27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>6</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D28" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>193</v>
+        <v>169</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="9">
-        <v>21</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>6</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>193</v>
+        <v>169</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" s="9">
-        <v>22</v>
+        <v>172</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="18">
+        <v>18</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>207</v>
+        <v>19</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9" t="s">
+      <c r="P29" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="10">
         <v>6</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2964,176 +2886,152 @@
         <v>17</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D30" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>193</v>
+        <v>169</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H30" s="9">
-        <v>23</v>
+        <v>172</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="18">
+        <v>19</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="18" t="s">
-        <v>213</v>
+      <c r="J30" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="N30" s="8" t="s">
-        <v>245</v>
+      <c r="N30" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="21" t="s">
-        <v>20</v>
+      <c r="P30" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="Q30" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D31" s="15" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="9">
-        <v>24</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>6</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="S31" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="10"/>
     </row>
     <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D32" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="13"/>
+        <v>169</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="H32" s="9">
-        <v>25</v>
+      <c r="G32" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="18">
+        <v>20</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>239</v>
+        <v>19</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="M32" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="18" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3141,113 +3039,95 @@
         <v>17</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="9">
-        <v>26</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="P33" s="18"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D34" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="9">
-        <v>27</v>
+        <v>169</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="18">
+        <v>21</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="18" t="s">
-        <v>237</v>
+      <c r="J34" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="9" t="s">
+      <c r="P34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="10" t="s">
-        <v>142</v>
+      <c r="Q34" s="10">
+        <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3255,127 +3135,143 @@
         <v>17</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D35" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="13"/>
+        <v>169</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>135</v>
+      </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="9">
-        <v>28</v>
+      <c r="G35" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="18">
+        <v>22</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>240</v>
+      <c r="J35" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="O35" s="9"/>
-      <c r="P35" s="9" t="s">
+      <c r="P35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="10" t="s">
-        <v>142</v>
+      <c r="Q35" s="10">
+        <v>6</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D36" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H36" s="9">
-        <v>29</v>
+      <c r="G36" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="18">
+        <v>23</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="18" t="s">
-        <v>242</v>
+      <c r="J36" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="P36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="10"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q36" s="10">
+        <v>6</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D37" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="9">
-        <v>30</v>
+      <c r="G37" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="18">
+        <v>24</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="18" t="s">
-        <v>243</v>
+      <c r="J37" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3385,174 +3281,300 @@
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
+      <c r="P37" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="Q37" s="10">
         <v>6</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D38" s="15" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" s="9">
-        <v>31</v>
+      <c r="G38" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="18">
+        <v>25</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="18" t="s">
-        <v>244</v>
+      <c r="J38" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="O38" s="9"/>
-      <c r="P38" s="9" t="s">
-        <v>20</v>
+      <c r="P38" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="Q38" s="10">
         <v>6</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
+      <c r="G39" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="18">
+        <v>26</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="N39" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="10"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
+      <c r="P39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>6</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="6"/>
+      <c r="G40" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="18">
+        <v>27</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
+      <c r="P40" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="11"/>
       <c r="S40" s="10"/>
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="E41" s="13"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
+      <c r="G41" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="18">
+        <v>28</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="N41" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="10"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
+      <c r="P41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>6</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="E42" s="13"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="6"/>
+      <c r="G42" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="18">
+        <v>29</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="N42" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="10"/>
+      <c r="P42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>6</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -3561,16 +3583,16 @@
       <c r="D43" s="15"/>
       <c r="E43" s="13"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="9"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="18"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="7"/>
       <c r="L43" s="6"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
+      <c r="P43" s="18"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="11"/>
       <c r="S43" s="10"/>
@@ -3584,16 +3606,16 @@
       <c r="D44" s="15"/>
       <c r="E44" s="13"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="9"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="18"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="7"/>
       <c r="L44" s="6"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="P44" s="18"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="11"/>
       <c r="S44" s="10"/>
@@ -3607,16 +3629,16 @@
       <c r="D45" s="15"/>
       <c r="E45" s="13"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="9"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="18"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="7"/>
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
+      <c r="P45" s="18"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
       <c r="S45" s="10"/>
@@ -3630,16 +3652,16 @@
       <c r="D46" s="15"/>
       <c r="E46" s="13"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="18"/>
+      <c r="J46" s="20"/>
       <c r="K46" s="7"/>
       <c r="L46" s="6"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
+      <c r="P46" s="18"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="11"/>
       <c r="S46" s="10"/>
@@ -3653,16 +3675,16 @@
       <c r="D47" s="15"/>
       <c r="E47" s="13"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="9"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="18"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="7"/>
       <c r="L47" s="6"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
+      <c r="P47" s="18"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="11"/>
       <c r="S47" s="10"/>
@@ -3676,16 +3698,16 @@
       <c r="D48" s="15"/>
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="9"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="18"/>
+      <c r="J48" s="20"/>
       <c r="K48" s="7"/>
       <c r="L48" s="6"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
+      <c r="P48" s="18"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="11"/>
       <c r="S48" s="10"/>
@@ -3699,16 +3721,16 @@
       <c r="D49" s="15"/>
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="9"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="18"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="7"/>
       <c r="L49" s="6"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
+      <c r="P49" s="18"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="11"/>
       <c r="S49" s="10"/>
@@ -3722,16 +3744,16 @@
       <c r="D50" s="15"/>
       <c r="E50" s="13"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="9"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="18"/>
+      <c r="J50" s="20"/>
       <c r="K50" s="7"/>
       <c r="L50" s="6"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
+      <c r="P50" s="18"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="11"/>
       <c r="S50" s="10"/>
@@ -3745,16 +3767,16 @@
       <c r="D51" s="15"/>
       <c r="E51" s="13"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="9"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="18"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="7"/>
       <c r="L51" s="6"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="P51" s="18"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="11"/>
       <c r="S51" s="10"/>
@@ -3768,16 +3790,16 @@
       <c r="D52" s="15"/>
       <c r="E52" s="13"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="9"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="20"/>
       <c r="K52" s="7"/>
       <c r="L52" s="6"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
+      <c r="P52" s="18"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="11"/>
       <c r="S52" s="10"/>
@@ -3791,16 +3813,16 @@
       <c r="D53" s="15"/>
       <c r="E53" s="13"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="9"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="18"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="7"/>
       <c r="L53" s="6"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
+      <c r="P53" s="18"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="11"/>
       <c r="S53" s="10"/>
@@ -3814,16 +3836,16 @@
       <c r="D54" s="15"/>
       <c r="E54" s="13"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="9"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="20"/>
       <c r="K54" s="7"/>
       <c r="L54" s="6"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
+      <c r="P54" s="18"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="11"/>
       <c r="S54" s="10"/>
@@ -3837,16 +3859,16 @@
       <c r="D55" s="15"/>
       <c r="E55" s="13"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="9"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="18"/>
+      <c r="J55" s="20"/>
       <c r="K55" s="7"/>
       <c r="L55" s="6"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
+      <c r="P55" s="18"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="11"/>
       <c r="S55" s="10"/>
@@ -3860,16 +3882,16 @@
       <c r="D56" s="15"/>
       <c r="E56" s="13"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="9"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="18"/>
+      <c r="J56" s="20"/>
       <c r="K56" s="7"/>
       <c r="L56" s="6"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
+      <c r="P56" s="18"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="11"/>
       <c r="S56" s="10"/>
@@ -3883,16 +3905,16 @@
       <c r="D57" s="15"/>
       <c r="E57" s="13"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="9"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="18"/>
+      <c r="J57" s="20"/>
       <c r="K57" s="7"/>
       <c r="L57" s="6"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
+      <c r="P57" s="18"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="11"/>
       <c r="S57" s="10"/>
@@ -3906,16 +3928,16 @@
       <c r="D58" s="15"/>
       <c r="E58" s="13"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="9"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="7"/>
       <c r="L58" s="6"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
+      <c r="P58" s="18"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="11"/>
       <c r="S58" s="10"/>
@@ -3929,16 +3951,16 @@
       <c r="D59" s="15"/>
       <c r="E59" s="13"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="9"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="18"/>
+      <c r="J59" s="20"/>
       <c r="K59" s="7"/>
       <c r="L59" s="6"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
+      <c r="P59" s="18"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="11"/>
       <c r="S59" s="10"/>
@@ -3952,16 +3974,16 @@
       <c r="D60" s="15"/>
       <c r="E60" s="13"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="9"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="18"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="7"/>
       <c r="L60" s="6"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
+      <c r="P60" s="18"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="11"/>
       <c r="S60" s="10"/>
@@ -3975,16 +3997,16 @@
       <c r="D61" s="15"/>
       <c r="E61" s="13"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="9"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="20"/>
       <c r="K61" s="7"/>
       <c r="L61" s="6"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
+      <c r="P61" s="18"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="11"/>
       <c r="S61" s="10"/>
@@ -3998,16 +4020,16 @@
       <c r="D62" s="15"/>
       <c r="E62" s="13"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="9"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="18"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="7"/>
       <c r="L62" s="6"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
+      <c r="P62" s="18"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="11"/>
       <c r="S62" s="10"/>
@@ -4021,16 +4043,16 @@
       <c r="D63" s="15"/>
       <c r="E63" s="13"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="9"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="18"/>
+      <c r="J63" s="20"/>
       <c r="K63" s="7"/>
       <c r="L63" s="6"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
+      <c r="P63" s="18"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="11"/>
       <c r="S63" s="10"/>
@@ -4044,16 +4066,16 @@
       <c r="D64" s="15"/>
       <c r="E64" s="13"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="9"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="18"/>
+      <c r="J64" s="20"/>
       <c r="K64" s="7"/>
       <c r="L64" s="6"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
+      <c r="P64" s="18"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="11"/>
       <c r="S64" s="10"/>
@@ -4067,16 +4089,16 @@
       <c r="D65" s="15"/>
       <c r="E65" s="13"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="9"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="18"/>
+      <c r="J65" s="20"/>
       <c r="K65" s="7"/>
       <c r="L65" s="6"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
+      <c r="P65" s="18"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="11"/>
       <c r="S65" s="10"/>
@@ -4090,16 +4112,16 @@
       <c r="D66" s="15"/>
       <c r="E66" s="13"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="9"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="18"/>
+      <c r="J66" s="20"/>
       <c r="K66" s="7"/>
       <c r="L66" s="6"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
+      <c r="P66" s="18"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="11"/>
       <c r="S66" s="10"/>
@@ -4113,16 +4135,16 @@
       <c r="D67" s="15"/>
       <c r="E67" s="13"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="9"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="18"/>
+      <c r="J67" s="20"/>
       <c r="K67" s="7"/>
       <c r="L67" s="6"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
+      <c r="P67" s="18"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="11"/>
       <c r="S67" s="10"/>
@@ -4136,16 +4158,16 @@
       <c r="D68" s="15"/>
       <c r="E68" s="13"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="9"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="18"/>
+      <c r="J68" s="20"/>
       <c r="K68" s="7"/>
       <c r="L68" s="6"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
+      <c r="P68" s="18"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="11"/>
       <c r="S68" s="10"/>
@@ -4159,23 +4181,45 @@
       <c r="D69" s="15"/>
       <c r="E69" s="13"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="9"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="18"/>
+      <c r="J69" s="20"/>
       <c r="K69" s="7"/>
       <c r="L69" s="6"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
+      <c r="P69" s="18"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="11"/>
       <c r="S69" s="10"/>
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="10"/>
+    </row>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4188,192 +4232,192 @@
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4536,9 +4580,18 @@
     <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:U38"/>
+  <autoFilter ref="A1:U42">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4553,12 +4606,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4569,31 +4616,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N69</xm:sqref>
+          <xm:sqref>N3:N70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A69</xm:sqref>
+          <xm:sqref>A3:A70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K69 I3:I69 P3:P69</xm:sqref>
+          <xm:sqref>I3:I70 K3:K70 P3:P70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L69</xm:sqref>
+          <xm:sqref>L3:L70</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M69</xm:sqref>
+          <xm:sqref>M3:M70</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado06/guion06/Escaleta_CN_06_06_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion06/Escaleta_CN_06_06_CO.xlsx
@@ -16,9 +16,9 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$U$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1010,16 +1010,34 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,24 +1077,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,9 +1385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,94 +1415,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4582,16 +4582,8 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U42">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
+  <autoFilter ref="A2:U42"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4606,6 +4598,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
